--- a/biology/Botanique/Salicorne_vivace/Salicorne_vivace.xlsx
+++ b/biology/Botanique/Salicorne_vivace/Salicorne_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcocornia perennis
 La Salicorne vivace ou Salicorne pérenne (Sarcocornia perennis) est un sous-arbrisseau halophile pérenne, voisine des salicornes, mais qui ne fait plus partie du genre Salicornia. Elle est rattachée au genre Sarcocornia.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salicornia perennis Mill., 1768
 Arthrocnemum perenne (Mill.) Moss, 1948.</t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont réduites à des écailles, les tiges deviennent ligneuses et se colorent avec le temps.
-La floraison a lieu d'août à octobre[1].
+La floraison a lieu d'août à octobre.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante du littoral, des marais salants ou des grèves caillouteuses.
 </t>
